--- a/Team Project/Database.xlsx
+++ b/Team Project/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WhiZzPY\Documents\Belajar 2\File Penting\SEMESTER 2\PRAKTIKUM PROGRAMA KOMPUTER\Team Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WhiZzPY\Documents\Belajar 2\File Penting\SEMESTER 2\PRAKTIKUM PROGRAMA KOMPUTER\Project\22-TeamProject-Prokom\Team Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86175212-FA85-4B7E-B52D-A45AFE586E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C731A00-E7FF-4CA3-ABA6-2FB7B091A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
-    <t>no.</t>
-  </si>
-  <si>
     <t>provinsi</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Pos Indonesia</t>
+  </si>
+  <si>
+    <t>kode</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -533,28 +533,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>91000</v>
@@ -598,10 +598,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>42000</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>34000</v>
@@ -650,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>56000</v>
@@ -676,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>40000</v>
@@ -702,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>49000</v>
@@ -728,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>47000</v>
@@ -754,10 +754,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>35000</v>
@@ -780,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>33000</v>
@@ -806,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>35000</v>
@@ -832,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>35000</v>
@@ -858,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>43000</v>
@@ -884,10 +884,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>22000</v>
@@ -910,10 +910,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>30000</v>
@@ -936,10 +936,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>82000</v>
@@ -962,10 +962,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>20000</v>
@@ -988,10 +988,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>15000</v>
@@ -1014,10 +1014,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>20000</v>
@@ -1040,10 +1040,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D21" s="1">
         <v>16000</v>
@@ -1066,10 +1066,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>14000</v>
@@ -1092,10 +1092,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D23" s="1">
         <v>23000</v>
@@ -1118,10 +1118,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>42000</v>
@@ -1144,10 +1144,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="1">
         <v>20000</v>
@@ -1170,10 +1170,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1">
         <v>59000</v>
@@ -1196,10 +1196,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D27" s="1">
         <v>66000</v>
@@ -1222,10 +1222,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D28" s="1">
         <v>45000</v>
@@ -1248,10 +1248,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="1">
         <v>99000</v>
@@ -1274,10 +1274,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="1">
         <v>53000</v>
@@ -1300,10 +1300,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D31" s="1">
         <v>28000</v>
@@ -1326,10 +1326,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D32" s="1">
         <v>184000</v>
@@ -1352,10 +1352,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D33" s="1">
         <v>58000</v>
@@ -1378,10 +1378,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D34" s="1">
         <v>231000</v>
@@ -1404,10 +1404,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D35" s="1">
         <v>96000</v>
